--- a/TestData/Data/Repports/TrainingType.xlsx
+++ b/TestData/Data/Repports/TrainingType.xlsx
@@ -22,7 +22,7 @@
     <x:t>MessageType</x:t>
   </x:si>
   <x:si>
-    <x:t>Mise à jour de l'entity Cours du jour</x:t>
+    <x:t>Mise à jour de l'entity Cours de jours</x:t>
   </x:si>
   <x:si>
     <x:t>Update_Success</x:t>
@@ -396,7 +396,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="32.310625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="33.070625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="16.175425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
